--- a/tesi_camilla/general/conceptual_model.xlsx
+++ b/tesi_camilla/general/conceptual_model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_tesi/thesis/main_new_formulation_int/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cami/Documents/GitHub/pyesm_thesis/tesi_camilla/general/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078B8290-B1FF-CB4E-8350-653B8B13FC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE61CAD7-1C74-7242-861D-777C1E2C6398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{7B02621E-B7BE-C640-8F0D-21B2A43A72CA}"/>
   </bookViews>
   <sheets>
     <sheet name="block_capacity" sheetId="20" r:id="rId1"/>
@@ -454,7 +454,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -476,7 +476,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1993" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1998" uniqueCount="257">
   <si>
     <t>time_day</t>
   </si>
@@ -1249,7 +1249,22 @@
     <t>No new cap BEV ==0</t>
   </si>
   <si>
-    <t>cap_blocks</t>
+    <t>capacity units</t>
+  </si>
+  <si>
+    <t>new_units</t>
+  </si>
+  <si>
+    <t>capacity_cost</t>
+  </si>
+  <si>
+    <t>period_cost</t>
+  </si>
+  <si>
+    <t>active_techs</t>
+  </si>
+  <si>
+    <t>yearly_costs</t>
   </si>
 </sst>
 </file>
@@ -1357,7 +1372,7 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1445,6 +1460,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1567,7 +1588,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1637,6 +1658,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4196,14 +4219,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E02FE5-A7C1-D649-BCF2-0721DF4747BA}">
-  <dimension ref="A1:CV95"/>
+  <dimension ref="A1:CV104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F7" zoomScale="87" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="P9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="F7" sqref="F7"/>
       <selection pane="topRight" activeCell="I7" sqref="I7"/>
       <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
-      <selection pane="bottomRight" activeCell="BE102" sqref="BE102"/>
+      <selection pane="bottomRight" activeCell="AV49" sqref="AV49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5472,11 +5495,11 @@
       </c>
       <c r="K11" s="35" cm="1">
         <f t="array" ref="K11">MMULT(AT47:BL47,TRANSPOSE(AT92:BL92*AT90:BL90))+CD21*CD23</f>
-        <v>5500</v>
+        <v>6570</v>
       </c>
       <c r="L11" s="36">
         <f>J11+K11</f>
-        <v>8332.6391858000006</v>
+        <v>9402.6391858000006</v>
       </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -7669,22 +7692,22 @@
       <c r="CN21" s="13"/>
       <c r="CO21" s="17" cm="1">
         <f t="array" ref="CO21:CU37">TRANSPOSE(_xlfn.ANCHORARRAY(AT74)-AT82:BJ88)</f>
-        <v>5.5511151231257827E-17</v>
+        <v>-0.3</v>
       </c>
       <c r="CP21" s="18">
-        <v>1.1102230246251565E-16</v>
+        <v>-0.6</v>
       </c>
       <c r="CQ21" s="18">
-        <v>5.5511151231257827E-17</v>
+        <v>-0.3</v>
       </c>
       <c r="CR21" s="18">
-        <v>1.1102230246251565E-16</v>
+        <v>-0.6</v>
       </c>
       <c r="CS21" s="18">
-        <v>-1.1102230246251565E-16</v>
+        <v>-0.9</v>
       </c>
       <c r="CT21" s="19">
-        <v>1.1102230246251565E-16</v>
+        <v>-0.6</v>
       </c>
       <c r="CU21">
         <v>0</v>
@@ -7864,25 +7887,25 @@
       </c>
       <c r="CN22" s="13"/>
       <c r="CO22" s="20">
-        <v>0</v>
+        <v>-15.3</v>
       </c>
       <c r="CP22" s="13">
-        <v>7.3000000000000007</v>
+        <v>-7.9999999999999991</v>
       </c>
       <c r="CQ22" s="13">
-        <v>0</v>
+        <v>-15.3</v>
       </c>
       <c r="CR22" s="13">
-        <v>0</v>
+        <v>-15.3</v>
       </c>
       <c r="CS22" s="13">
-        <v>7</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="CT22" s="21">
-        <v>0</v>
+        <v>-15.3</v>
       </c>
       <c r="CU22">
-        <v>1.6999999999999993</v>
+        <v>-13.600000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:99" x14ac:dyDescent="0.2">
@@ -8059,25 +8082,25 @@
       </c>
       <c r="CN23" s="13"/>
       <c r="CO23" s="20">
-        <v>0.26393209999999989</v>
+        <v>-6.7360679000000001</v>
       </c>
       <c r="CP23" s="13">
-        <v>2.4000000000000004</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="CQ23" s="13">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="CR23" s="13">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="CS23" s="13">
-        <v>1</v>
+        <v>-6</v>
       </c>
       <c r="CT23" s="21">
-        <v>4</v>
+        <v>-3</v>
       </c>
       <c r="CU23">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="24" spans="1:99" x14ac:dyDescent="0.2">
@@ -8430,25 +8453,25 @@
       </c>
       <c r="CN25" s="13"/>
       <c r="CO25" s="20">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="CP25" s="13">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="CQ25" s="13">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="CR25" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CS25" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CT25" s="21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CU25">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:99" x14ac:dyDescent="0.2">
@@ -8608,25 +8631,25 @@
       </c>
       <c r="CN26" s="13"/>
       <c r="CO26" s="20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CP26" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CQ26" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CR26" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CS26" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CT26" s="21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="CU26">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:99" x14ac:dyDescent="0.2">
@@ -9142,25 +9165,25 @@
       </c>
       <c r="CN29" s="13"/>
       <c r="CO29" s="20">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="CP29" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CQ29" s="13">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="CR29" s="13">
-        <v>2.5</v>
+        <v>-0.5</v>
       </c>
       <c r="CS29" s="13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="CT29" s="21">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="CU29">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="30" spans="1:99" x14ac:dyDescent="0.2">
@@ -9320,25 +9343,25 @@
       </c>
       <c r="CN30" s="13"/>
       <c r="CO30" s="20">
-        <v>9998.25</v>
+        <v>-0.75</v>
       </c>
       <c r="CP30" s="13">
-        <v>9997.5</v>
+        <v>-1.5</v>
       </c>
       <c r="CQ30" s="13">
-        <v>9996</v>
+        <v>-3</v>
       </c>
       <c r="CR30" s="13">
-        <v>9998.25</v>
+        <v>-0.75</v>
       </c>
       <c r="CS30" s="13">
-        <v>9997.5</v>
+        <v>-1.5</v>
       </c>
       <c r="CT30" s="21">
-        <v>9996</v>
+        <v>-3</v>
       </c>
       <c r="CU30">
-        <v>9996</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31" spans="1:99" x14ac:dyDescent="0.2">
@@ -9484,22 +9507,22 @@
       <c r="CM31" s="13"/>
       <c r="CN31" s="13"/>
       <c r="CO31" s="20">
-        <v>2.6680739999999998</v>
+        <v>-4.3319260000000002</v>
       </c>
       <c r="CP31" s="13">
         <v>0</v>
       </c>
       <c r="CQ31" s="13">
-        <v>3.2</v>
+        <v>-3.8</v>
       </c>
       <c r="CR31" s="13">
-        <v>0.29999999999999982</v>
+        <v>-6.7</v>
       </c>
       <c r="CS31" s="13">
         <v>0</v>
       </c>
       <c r="CT31" s="21">
-        <v>0.70000000000000018</v>
+        <v>-6.3</v>
       </c>
       <c r="CU31">
         <v>0</v>
@@ -9648,22 +9671,22 @@
       <c r="CM32" s="13"/>
       <c r="CN32" s="13"/>
       <c r="CO32" s="30">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CP32">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CQ32">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CR32">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CS32">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CT32" s="31">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="CU32">
         <v>0</v>
@@ -9805,22 +9828,22 @@
       <c r="CF33" s="6"/>
       <c r="CN33" s="13"/>
       <c r="CO33" s="30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="CP33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="CQ33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="CR33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="CS33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="CT33" s="31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="CU33">
         <v>0</v>
@@ -9969,22 +9992,22 @@
       <c r="CF34" s="6"/>
       <c r="CN34" s="13"/>
       <c r="CO34" s="30">
-        <v>485</v>
+        <v>-15</v>
       </c>
       <c r="CP34">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="CQ34">
-        <v>494.16807399999999</v>
+        <v>-5.8319260000000002</v>
       </c>
       <c r="CR34">
-        <v>483</v>
+        <v>-17</v>
       </c>
       <c r="CS34">
-        <v>483</v>
+        <v>-17</v>
       </c>
       <c r="CT34" s="31">
-        <v>493.7</v>
+        <v>-6.3</v>
       </c>
       <c r="CU34">
         <v>0</v>
@@ -10133,22 +10156,22 @@
       <c r="CF35" s="6"/>
       <c r="CN35" s="13"/>
       <c r="CO35" s="20">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="CP35" s="13">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="CQ35" s="13">
-        <v>111.12049300000001</v>
+        <v>-38.879506999999997</v>
       </c>
       <c r="CR35" s="13">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="CS35" s="13">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="CT35" s="21">
-        <v>108</v>
+        <v>-42</v>
       </c>
       <c r="CU35">
         <v>0</v>
@@ -10297,22 +10320,22 @@
       <c r="CF36" s="13"/>
       <c r="CN36" s="13"/>
       <c r="CO36" s="20">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="CP36" s="13">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="CQ36" s="13">
-        <v>138.87950699999999</v>
+        <v>-61.120493000000003</v>
       </c>
       <c r="CR36" s="13">
-        <v>190</v>
+        <v>-10</v>
       </c>
       <c r="CS36" s="13">
-        <v>190</v>
+        <v>-10</v>
       </c>
       <c r="CT36" s="21">
-        <v>182</v>
+        <v>-18</v>
       </c>
       <c r="CU36">
         <v>0</v>
@@ -10461,22 +10484,22 @@
       <c r="CF37" s="13"/>
       <c r="CN37" s="13"/>
       <c r="CO37" s="20">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="CP37" s="13">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="CQ37" s="13">
-        <v>99997.777590099999</v>
+        <v>-1.2224098999999999</v>
       </c>
       <c r="CR37" s="13">
-        <v>99998.8</v>
+        <v>-0.2</v>
       </c>
       <c r="CS37" s="13">
-        <v>99998.8</v>
+        <v>-0.2</v>
       </c>
       <c r="CT37" s="21">
-        <v>99998.64</v>
+        <v>-0.36</v>
       </c>
       <c r="CU37">
         <v>0</v>
@@ -11832,7 +11855,8 @@
         <v>6</v>
       </c>
       <c r="AV48" s="16">
-        <v>7</v>
+        <f>7*5</f>
+        <v>35</v>
       </c>
       <c r="AW48" s="16">
         <v>0</v>
@@ -12050,11 +12074,11 @@
       </c>
       <c r="BK50" s="47" cm="1">
         <f t="array" ref="BK50:BK55">AX66:AX71*BO50:BO55-MMULT(BV50:CA55,X58:X63)</f>
-        <v>9.9999999999999978E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="BL50" s="47" cm="1">
         <f t="array" ref="BL50:BL55">AY66:AY71*BP50:BP55-MMULT(BV58:CA63,AC58:AC63)</f>
-        <v>1.2358036999999999</v>
+        <v>0.73580369999999995</v>
       </c>
       <c r="BM50" s="13"/>
       <c r="BN50" s="13"/>
@@ -12092,22 +12116,22 @@
       <c r="CN50" s="13"/>
       <c r="CO50" s="13" cm="1">
         <f t="array" ref="CO50:CT51">TRANSPOSE(_xlfn.ANCHORARRAY(AV66)-BK50:BL55)</f>
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="CP50" s="13">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="CQ50" s="13">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="CR50" s="13">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="CS50" s="13">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="CT50" s="13">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:99" x14ac:dyDescent="0.2">
@@ -12188,10 +12212,10 @@
         <v>1</v>
       </c>
       <c r="BK51" s="48">
-        <v>9.9999999999999978E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="BL51" s="48">
-        <v>1.1122233300000002</v>
+        <v>0.66222333</v>
       </c>
       <c r="BM51" s="13"/>
       <c r="BN51" s="13"/>
@@ -12232,22 +12256,22 @@
       <c r="CM51" s="13"/>
       <c r="CN51" s="13"/>
       <c r="CO51" s="13">
-        <v>1.7341962999999998</v>
+        <v>1.2441963</v>
       </c>
       <c r="CP51" s="13">
-        <v>1.8577766699999996</v>
+        <v>1.31777667</v>
       </c>
       <c r="CQ51" s="13">
-        <v>2.970000003</v>
+        <v>2.385000003</v>
       </c>
       <c r="CR51" s="13">
-        <v>2.9700000026999995</v>
+        <v>2.3445000026999998</v>
       </c>
       <c r="CS51" s="13">
-        <v>2.97000000243</v>
+        <v>2.3080500024299999</v>
       </c>
       <c r="CT51" s="13">
-        <v>2.9700000021869997</v>
+        <v>2.2752450021869999</v>
       </c>
     </row>
     <row r="52" spans="1:99" x14ac:dyDescent="0.2">
@@ -12328,10 +12352,10 @@
         <v>1</v>
       </c>
       <c r="BK52" s="48">
-        <v>9.9999999999999978E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="BL52" s="48">
-        <v>-3.0000000261765081E-9</v>
+        <v>-0.40500000300000005</v>
       </c>
       <c r="BM52" s="13"/>
       <c r="BN52" s="13"/>
@@ -12458,10 +12482,10 @@
         <v>1</v>
       </c>
       <c r="BK53" s="48">
-        <v>9.9999999999999978E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="BL53" s="48">
-        <v>-2.6999997793097918E-9</v>
+        <v>-0.36450000269999983</v>
       </c>
       <c r="BM53" s="13"/>
       <c r="BN53" s="13"/>
@@ -12502,22 +12526,22 @@
       <c r="CM53" s="13"/>
       <c r="CO53" s="13" cm="1">
         <f t="array" ref="CO53:CT54">TRANSPOSE(BK50:BL55-_xlfn.ANCHORARRAY(AT66))</f>
-        <v>-2.7755575615628914E-17</v>
+        <v>-0.4</v>
       </c>
       <c r="CP53" s="13">
-        <v>-2.7755575615628914E-17</v>
+        <v>-0.4</v>
       </c>
       <c r="CQ53" s="13">
-        <v>-2.7755575615628914E-17</v>
+        <v>-0.4</v>
       </c>
       <c r="CR53" s="13">
-        <v>-2.7755575615628914E-17</v>
+        <v>-0.4</v>
       </c>
       <c r="CS53" s="13">
-        <v>-2.7755575615628914E-17</v>
+        <v>-0.4</v>
       </c>
       <c r="CT53" s="13">
-        <v>-2.7755575615628914E-17</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="54" spans="1:99" x14ac:dyDescent="0.2">
@@ -12598,10 +12622,10 @@
         <v>1</v>
       </c>
       <c r="BK54" s="48">
-        <v>9.9999999999999978E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="BL54" s="48">
-        <v>-2.4299999790144966E-9</v>
+        <v>-0.32805000243000004</v>
       </c>
       <c r="BM54" s="13"/>
       <c r="BN54" s="13"/>
@@ -12641,22 +12665,22 @@
       <c r="CL54" s="13"/>
       <c r="CM54" s="13"/>
       <c r="CO54" s="13">
-        <v>1.2358036999999999</v>
+        <v>0.73580369999999995</v>
       </c>
       <c r="CP54" s="13">
-        <v>1.1122233300000002</v>
+        <v>0.66222333</v>
       </c>
       <c r="CQ54" s="13">
-        <v>-3.0000000261765081E-9</v>
+        <v>-0.40500000300000005</v>
       </c>
       <c r="CR54" s="13">
-        <v>-2.6999997793097918E-9</v>
+        <v>-0.36450000269999983</v>
       </c>
       <c r="CS54" s="13">
-        <v>-2.4299999790144966E-9</v>
+        <v>-0.32805000243000004</v>
       </c>
       <c r="CT54" s="13">
-        <v>-2.1869999144996655E-9</v>
+        <v>-0.29524500218700001</v>
       </c>
     </row>
     <row r="55" spans="1:99" x14ac:dyDescent="0.2">
@@ -12737,10 +12761,10 @@
         <v>1</v>
       </c>
       <c r="BK55" s="48">
-        <v>9.9999999999999978E-2</v>
+        <v>-0.4</v>
       </c>
       <c r="BL55" s="48">
-        <v>-2.1869999144996655E-9</v>
+        <v>-0.29524500218700001</v>
       </c>
       <c r="BM55" s="13"/>
       <c r="BN55" s="13"/>
@@ -12873,22 +12897,22 @@
       <c r="CM56" s="13"/>
       <c r="CO56" s="13" cm="1">
         <f t="array" ref="CO56:CU56">TRANSPOSE(AZ66:AZ72-X58:X64)</f>
-        <v>0.19999999999999996</v>
+        <v>-0.4</v>
       </c>
       <c r="CP56" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CQ56" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CR56" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CS56" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CT56" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CU56">
         <v>0</v>
@@ -13006,22 +13030,22 @@
       <c r="CM57" s="13"/>
       <c r="CO57" s="13" cm="1">
         <f t="array" ref="CO57:CU57">TRANSPOSE(BA66:BA72-AC58:AC64)</f>
-        <v>2.1358037000000003</v>
+        <v>1.3358037</v>
       </c>
       <c r="CP57" s="13">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="CQ57" s="13">
-        <v>1.3989990000000003</v>
+        <v>0.59899900000000006</v>
       </c>
       <c r="CR57" s="13">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="CS57" s="13">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="CT57" s="13">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="CU57">
         <v>0</v>
@@ -13169,7 +13193,7 @@
       <c r="BK58" s="13"/>
       <c r="BL58" s="47" cm="1">
         <f t="array" ref="BL58:BL63">BH66:BH71-MMULT(BV50:CA55,MMULT(U58:AR63,BZ21:BZ44))</f>
-        <v>39.331925999999996</v>
+        <v>-10.668074000000001</v>
       </c>
       <c r="BM58" s="13"/>
       <c r="BN58" s="13"/>
@@ -13353,7 +13377,7 @@
       </c>
       <c r="BK59" s="13"/>
       <c r="BL59" s="48">
-        <v>39.331925999999996</v>
+        <v>-10.668074000000001</v>
       </c>
       <c r="BM59" s="13"/>
       <c r="BN59" s="13"/>
@@ -13392,25 +13416,25 @@
       <c r="CN59" s="13"/>
       <c r="CO59" s="13" cm="1">
         <f t="array" ref="CO59:CU59">TRANSPOSE(-BB66:BB72+X58:X64)</f>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="CP59" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CQ59" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CR59" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CS59" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CT59" s="13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CU59">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:99" x14ac:dyDescent="0.2">
@@ -13552,7 +13576,7 @@
       </c>
       <c r="BK60" s="13"/>
       <c r="BL60" s="48">
-        <v>37.299999999999997</v>
+        <v>-12.700000000000001</v>
       </c>
       <c r="BM60" s="13"/>
       <c r="BN60" s="13"/>
@@ -13586,25 +13610,25 @@
       <c r="CN60" s="13"/>
       <c r="CO60" s="13" cm="1">
         <f t="array" ref="CO60:CU60">TRANSPOSE(-BC66:BC72+AC58:AC64)</f>
-        <v>2.6641963000000004</v>
+        <v>1.8641963000000001</v>
       </c>
       <c r="CP60" s="13">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="CQ60" s="13">
-        <v>3.4010010000000004</v>
+        <v>2.6010010000000001</v>
       </c>
       <c r="CR60" s="13">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="CS60" s="13">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="CT60" s="13">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="CU60">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" spans="1:99" x14ac:dyDescent="0.2">
@@ -13746,7 +13770,7 @@
       </c>
       <c r="BK61" s="13"/>
       <c r="BL61" s="48">
-        <v>27</v>
+        <v>-23</v>
       </c>
       <c r="BM61" s="13"/>
       <c r="BN61" s="13"/>
@@ -13922,7 +13946,7 @@
       </c>
       <c r="BK62" s="13"/>
       <c r="BL62" s="48">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="BM62" s="13"/>
       <c r="BN62" s="13"/>
@@ -13958,22 +13982,22 @@
       <c r="CN62" s="13"/>
       <c r="CO62" cm="1">
         <f t="array" ref="CO62:CT62">TRANSPOSE(BG66:BG71-_xlfn.ANCHORARRAY(BL58))</f>
-        <v>50.668074000000004</v>
+        <v>10.668074000000001</v>
       </c>
       <c r="CP62">
-        <v>50.668074000000004</v>
+        <v>10.668074000000001</v>
       </c>
       <c r="CQ62">
-        <v>52.7</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="CR62">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="CS62">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="CT62">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:99" x14ac:dyDescent="0.2">
@@ -14115,7 +14139,7 @@
       </c>
       <c r="BK63" s="13"/>
       <c r="BL63" s="48">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="BM63" s="13"/>
       <c r="BN63" s="13"/>
@@ -14267,22 +14291,22 @@
       <c r="CN64" s="13"/>
       <c r="CO64" s="41" cm="1">
         <f t="array" ref="CO64:CT64">TRANSPOSE(_xlfn.ANCHORARRAY(BL58)-BF66:BF71)</f>
-        <v>29.331925999999996</v>
+        <v>-10.668074000000001</v>
       </c>
       <c r="CP64">
-        <v>29.331925999999996</v>
+        <v>-10.668074000000001</v>
       </c>
       <c r="CQ64">
-        <v>27.299999999999997</v>
+        <v>-12.700000000000001</v>
       </c>
       <c r="CR64">
-        <v>17</v>
+        <v>-23</v>
       </c>
       <c r="CS64">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="CT64">
-        <v>0</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="65" spans="1:99" x14ac:dyDescent="0.2">
@@ -14415,48 +14439,48 @@
       </c>
       <c r="AT66" s="37" cm="1">
         <f t="array" ref="AT66:AU71">AT58:AU63*$BK$94:$BL$94</f>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="37">
         <v>0</v>
       </c>
       <c r="AV66" s="37" cm="1">
         <f t="array" ref="AV66:AW71">AV58:AW63*$BK$94:$BL$94</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="55">
-        <v>2.9699999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="AX66" s="37" cm="1">
         <f t="array" ref="AX66:AY71">AX58:AY63*$BK$94:$BL$94</f>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AZ66" s="37" cm="1">
         <f t="array" ref="AZ66:BA72">AZ58:BA64*$BK$94:$BL$94</f>
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BA66" s="37">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="BB66" s="37" cm="1">
         <f t="array" ref="BB66:BC72">BB58:BC64*$BK$94:$BL$94</f>
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BC66" s="37">
-        <v>-2.4000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="BF66" s="37" cm="1">
         <f t="array" ref="BF66:BH71">BF58:BH63*BG94</f>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG66" s="37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BH66" s="37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="CO66" s="11" t="s">
         <v>231</v>
@@ -14542,55 +14566,55 @@
         <v>0</v>
       </c>
       <c r="AT67" s="37">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="37">
         <v>0</v>
       </c>
       <c r="AV67" s="37">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AW67" s="55">
-        <v>2.9699999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="AX67" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY67" s="37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AZ67" s="37">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BA67" s="37">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="BB67" s="37">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BC67" s="37">
-        <v>-2.4000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="BF67" s="37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG67" s="37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BH67" s="37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BY67" s="13"/>
       <c r="BZ67" s="13"/>
       <c r="CO67" s="41" cm="1">
         <f t="array" ref="CO67:CU68">TRANSPOSE(_xlfn.ANCHORARRAY(Y82)-Y58:Z64)</f>
-        <v>0.26393209999999989</v>
+        <v>-6.7360679000000001</v>
       </c>
       <c r="CP67">
-        <v>2.4000000000000004</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="CQ67">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="CR67">
         <v>0</v>
@@ -14685,43 +14709,43 @@
         <v>2.2003378200000001</v>
       </c>
       <c r="AT68" s="37">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AU68" s="37">
         <v>0</v>
       </c>
       <c r="AV68" s="37">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AW68" s="55">
-        <v>2.9699999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="AX68" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AZ68" s="37">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BA68" s="37">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="BB68" s="37">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BC68" s="37">
-        <v>-2.4000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="BF68" s="37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG68" s="37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BH68" s="37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BZ68" s="13"/>
       <c r="CO68">
@@ -14734,16 +14758,16 @@
         <v>0</v>
       </c>
       <c r="CR68">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="CS68">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="CT68">
-        <v>5</v>
+        <v>-2</v>
       </c>
       <c r="CU68">
-        <v>5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="69" spans="1:99" x14ac:dyDescent="0.2">
@@ -14826,43 +14850,43 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="AT69" s="37">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AU69" s="37">
         <v>0</v>
       </c>
       <c r="AV69" s="37">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AW69" s="55">
-        <v>2.9699999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="AX69" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY69" s="37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AZ69" s="37">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BA69" s="37">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="BB69" s="37">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BC69" s="37">
-        <v>-2.4000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="BF69" s="37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG69" s="37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BH69" s="37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BZ69" s="13"/>
     </row>
@@ -14959,43 +14983,43 @@
         <v>0.36000000000000004</v>
       </c>
       <c r="AT70" s="37">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AU70" s="37">
         <v>0</v>
       </c>
       <c r="AV70" s="37">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AW70" s="55">
-        <v>2.9699999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="AX70" s="37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY70" s="37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AZ70" s="37">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BA70" s="37">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="BB70" s="37">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BC70" s="37">
-        <v>-2.4000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="BF70" s="37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG70" s="37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BH70" s="37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BZ70" s="13"/>
     </row>
@@ -15102,43 +15126,43 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="AT71" s="38">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="37">
         <v>0</v>
       </c>
       <c r="AV71" s="38">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AW71" s="38">
-        <v>2.9699999999999998</v>
+        <v>1.98</v>
       </c>
       <c r="AX71" s="38">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AY71" s="38">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AZ71" s="38">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="BA71" s="38">
-        <v>2.4000000000000004</v>
+        <v>1.6</v>
       </c>
       <c r="BB71" s="38">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BC71" s="38">
-        <v>-2.4000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="BF71" s="37">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="BG71" s="37">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BH71" s="37">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BK71" s="13"/>
       <c r="BL71" s="13"/>
@@ -15256,10 +15280,10 @@
         <v>0</v>
       </c>
       <c r="BB72">
-        <v>-0.6</v>
+        <v>0</v>
       </c>
       <c r="BC72">
-        <v>-2.4000000000000004</v>
+        <v>-1.6</v>
       </c>
       <c r="BK72" s="13"/>
       <c r="BL72" s="13"/>
@@ -15301,29 +15325,29 @@
       <c r="S74" s="3"/>
       <c r="T74" s="3"/>
       <c r="Y74" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z74" s="14">
         <v>0</v>
       </c>
       <c r="AT74" s="37" cm="1">
         <f t="array" ref="AT74:BJ80">MMULT(AT50:BJ56,_xlfn.MUNIT(17)*AT94:BJ94)</f>
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AU74" s="38">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AV74" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW74" s="38">
         <v>0</v>
       </c>
       <c r="AX74" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY74" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ74" s="38">
         <v>0</v>
@@ -15332,31 +15356,31 @@
         <v>0</v>
       </c>
       <c r="BB74" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC74" s="38">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="BD74" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE74" s="38">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BF74" s="38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BG74" s="38">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="BH74" s="38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BI74" s="38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BJ74" s="38">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="CN74" s="13"/>
       <c r="CO74" s="13"/>
@@ -15389,28 +15413,28 @@
       <c r="S75" s="3"/>
       <c r="T75" s="3"/>
       <c r="Y75" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z75" s="14">
         <v>0</v>
       </c>
       <c r="AT75" s="38">
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AU75" s="38">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AV75" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW75" s="38">
         <v>0</v>
       </c>
       <c r="AX75" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY75" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ75" s="38">
         <v>0</v>
@@ -15419,31 +15443,31 @@
         <v>0</v>
       </c>
       <c r="BB75" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC75" s="38">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="BD75" s="38">
         <v>0</v>
       </c>
       <c r="BE75" s="38">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BF75" s="38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BG75" s="38">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="BH75" s="38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BI75" s="38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BJ75" s="38">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="CN75" s="13"/>
       <c r="CO75" s="13"/>
@@ -15483,28 +15507,28 @@
       <c r="S76" s="3"/>
       <c r="T76" s="3"/>
       <c r="Y76" s="14">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="Z76" s="14">
         <v>0</v>
       </c>
       <c r="AT76" s="38">
-        <v>0.30000000000000004</v>
+        <v>0</v>
       </c>
       <c r="AU76" s="38">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AV76" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW76" s="38">
         <v>0</v>
       </c>
       <c r="AX76" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY76" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ76" s="38">
         <v>0</v>
@@ -15513,31 +15537,31 @@
         <v>0</v>
       </c>
       <c r="BB76" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC76" s="38">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="BD76" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE76" s="38">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BF76" s="38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BG76" s="38">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="BH76" s="38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BI76" s="38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BJ76" s="38">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="CG76" s="11"/>
       <c r="CN76" s="13"/>
@@ -15583,22 +15607,22 @@
         <v>1</v>
       </c>
       <c r="AT77" s="38">
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AU77" s="38">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AV77" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW77" s="38">
         <v>0</v>
       </c>
       <c r="AX77" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY77" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ77" s="38">
         <v>0</v>
@@ -15607,31 +15631,31 @@
         <v>0</v>
       </c>
       <c r="BB77" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC77" s="38">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="BD77" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE77" s="38">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BF77" s="38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BG77" s="38">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="BH77" s="38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BI77" s="38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BJ77" s="38">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="CN77" s="13"/>
       <c r="CO77" s="13"/>
@@ -15676,22 +15700,22 @@
         <v>1</v>
       </c>
       <c r="AT78" s="38">
-        <v>0.89999999999999991</v>
+        <v>0</v>
       </c>
       <c r="AU78" s="38">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AV78" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW78" s="38">
         <v>0</v>
       </c>
       <c r="AX78" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY78" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ78" s="38">
         <v>0</v>
@@ -15700,31 +15724,31 @@
         <v>0</v>
       </c>
       <c r="BB78" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC78" s="38">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="BD78" s="38">
         <v>0</v>
       </c>
       <c r="BE78" s="38">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BF78" s="38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BG78" s="38">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="BH78" s="38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BI78" s="38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BJ78" s="38">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="CA78" s="13"/>
       <c r="CB78" s="13"/>
@@ -15775,22 +15799,22 @@
         <v>1</v>
       </c>
       <c r="AT79" s="38">
-        <v>0.60000000000000009</v>
+        <v>0</v>
       </c>
       <c r="AU79" s="38">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AV79" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW79" s="38">
         <v>0</v>
       </c>
       <c r="AX79" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY79" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ79" s="38">
         <v>0</v>
@@ -15799,31 +15823,31 @@
         <v>0</v>
       </c>
       <c r="BB79" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC79" s="38">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="BD79" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BE79" s="38">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="BF79" s="38">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BG79" s="38">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="BH79" s="38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BI79" s="38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BJ79" s="38">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="CA79" s="13"/>
       <c r="CB79" s="13"/>
@@ -15877,19 +15901,19 @@
         <v>0</v>
       </c>
       <c r="AU80" s="38">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="AV80" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW80" s="38">
         <v>0</v>
       </c>
       <c r="AX80" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AY80" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AZ80" s="38">
         <v>0</v>
@@ -15898,10 +15922,10 @@
         <v>0</v>
       </c>
       <c r="BB80" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC80" s="38">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="BD80" s="38">
         <v>0</v>
@@ -16004,7 +16028,7 @@
       <c r="T82" s="3"/>
       <c r="Y82" s="66" cm="1">
         <f t="array" ref="Y82:Z88">Y74:Z80*Y92:Z92</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z82" s="38">
         <v>0</v>
@@ -16102,7 +16126,7 @@
       <c r="S83" s="3"/>
       <c r="T83" s="3"/>
       <c r="Y83" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z83" s="38">
         <v>0</v>
@@ -16199,7 +16223,7 @@
       <c r="S84" s="3"/>
       <c r="T84" s="3"/>
       <c r="Y84" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z84" s="38">
         <v>0</v>
@@ -16299,7 +16323,7 @@
         <v>0</v>
       </c>
       <c r="Z85" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT85" s="30">
         <v>0.6</v>
@@ -16396,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="Z86" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT86" s="30">
         <v>0.9</v>
@@ -16485,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="Z87" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT87" s="32">
         <v>0.6</v>
@@ -16574,7 +16598,7 @@
         <v>0</v>
       </c>
       <c r="Z88">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AT88" s="32">
         <v>0</v>
@@ -16652,7 +16676,7 @@
       <c r="R89" s="3"/>
       <c r="S89" s="3"/>
       <c r="T89" s="3"/>
-      <c r="AT89" s="11" t="s">
+      <c r="AT89" t="s">
         <v>251</v>
       </c>
     </row>
@@ -16684,40 +16708,40 @@
         <v>0.5</v>
       </c>
       <c r="AV90" s="16">
+        <v>5</v>
+      </c>
+      <c r="AW90" s="16">
+        <v>1</v>
+      </c>
+      <c r="AX90" s="16">
         <v>3</v>
       </c>
-      <c r="AW90" s="16">
-        <v>2</v>
-      </c>
-      <c r="AX90" s="16">
-        <v>0.5</v>
-      </c>
       <c r="AY90" s="16">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AZ90" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA90" s="16">
+        <v>7</v>
+      </c>
+      <c r="BB90" s="16">
+        <v>0</v>
+      </c>
+      <c r="BC90" s="16">
+        <v>0</v>
+      </c>
+      <c r="BD90" s="16">
+        <v>0</v>
+      </c>
+      <c r="BE90" s="16">
+        <v>160</v>
+      </c>
+      <c r="BF90" s="16">
         <v>3</v>
       </c>
-      <c r="BB90" s="16">
-        <v>3</v>
-      </c>
-      <c r="BC90" s="16">
-        <v>1</v>
-      </c>
-      <c r="BD90" s="16">
-        <v>7.4</v>
-      </c>
-      <c r="BE90" s="16">
-        <v>0</v>
-      </c>
-      <c r="BF90" s="16">
-        <v>0</v>
-      </c>
       <c r="BG90" s="16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH90" s="16">
         <v>150</v>
@@ -16759,8 +16783,8 @@
       <c r="U91" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="AT91" s="11" t="s">
-        <v>130</v>
+      <c r="AT91" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="92" spans="1:93" x14ac:dyDescent="0.2">
@@ -16786,37 +16810,37 @@
       <c r="T92" s="3"/>
       <c r="U92" s="38" cm="1">
         <f t="array" ref="U92:AR92">MMULT(_xlfn.ANCHORARRAY(AT94),TRANSPOSE(AT21:BL44))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V92" s="38">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="W92" s="38">
-        <v>17</v>
+        <v>1.7</v>
       </c>
       <c r="X92" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y92" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z92" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA92" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB92" s="38">
         <v>0</v>
       </c>
       <c r="AC92" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AD92" s="38">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE92" s="38">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AF92" s="38">
         <v>0</v>
@@ -16825,43 +16849,43 @@
         <v>0</v>
       </c>
       <c r="AH92" s="38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI92" s="38">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="AJ92" s="38">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AK92" s="38">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AL92" s="38">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM92" s="38">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AN92" s="38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AO92" s="38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AP92" s="38">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AQ92" s="38">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AR92" s="38">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="AT92" s="25">
         <v>0</v>
       </c>
       <c r="AU92" s="25">
-        <v>22</v>
+        <v>3.4</v>
       </c>
       <c r="AV92" s="25">
         <v>0</v>
@@ -16870,10 +16894,10 @@
         <v>0</v>
       </c>
       <c r="AX92" s="25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AY92" s="25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AZ92" s="25">
         <v>0</v>
@@ -16882,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="BB92" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC92" s="25">
         <v>0</v>
@@ -16937,7 +16961,7 @@
       <c r="S93" s="3"/>
       <c r="T93" s="3"/>
       <c r="AT93" s="11" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:93" x14ac:dyDescent="0.2">
@@ -16961,63 +16985,63 @@
       <c r="R94" s="3"/>
       <c r="S94" s="3"/>
       <c r="T94" s="3"/>
-      <c r="AT94" s="40" cm="1">
-        <f t="array" ref="AT94:BL94">(AT92:BL92*AT90:BL90+AT48:BL48)</f>
-        <v>3</v>
-      </c>
-      <c r="AU94" s="40">
-        <v>17</v>
-      </c>
-      <c r="AV94" s="40">
-        <v>7</v>
-      </c>
-      <c r="AW94" s="40">
-        <v>0</v>
-      </c>
-      <c r="AX94" s="40">
-        <v>5</v>
-      </c>
-      <c r="AY94" s="40">
-        <v>0</v>
-      </c>
-      <c r="AZ94" s="40">
-        <v>0</v>
-      </c>
-      <c r="BA94" s="40">
-        <v>0</v>
-      </c>
-      <c r="BB94" s="40">
-        <v>3</v>
-      </c>
-      <c r="BC94" s="46">
-        <v>9999</v>
-      </c>
-      <c r="BD94" s="40">
-        <v>7</v>
-      </c>
-      <c r="BE94" s="40">
-        <v>17</v>
-      </c>
-      <c r="BF94" s="40">
-        <v>25</v>
-      </c>
-      <c r="BG94" s="40">
-        <v>100</v>
+      <c r="AT94" s="38" cm="1">
+        <f t="array" ref="AT94:BL94">AT92:BL92*AT90:BL90</f>
+        <v>0</v>
+      </c>
+      <c r="AU94" s="38">
+        <v>1.7</v>
+      </c>
+      <c r="AV94" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW94" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX94" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY94" s="38">
+        <v>6</v>
+      </c>
+      <c r="AZ94" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA94" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB94" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC94" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD94" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE94" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF94" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG94" s="38">
+        <v>0</v>
       </c>
       <c r="BH94" s="40">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="BI94" s="40">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="BJ94" s="40">
-        <v>99999</v>
+        <v>0</v>
       </c>
       <c r="BK94" s="40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL94" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:93" x14ac:dyDescent="0.2">
@@ -17041,6 +17065,326 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
+      <c r="AT95" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:93" x14ac:dyDescent="0.2">
+      <c r="AT96" s="40" cm="1">
+        <f t="array" ref="AT96:BL96">(_xlfn.ANCHORARRAY(AT94)+AT48:BL48)</f>
+        <v>3</v>
+      </c>
+      <c r="AU96" s="40">
+        <v>7.7</v>
+      </c>
+      <c r="AV96" s="40">
+        <v>35</v>
+      </c>
+      <c r="AW96" s="40">
+        <v>0</v>
+      </c>
+      <c r="AX96" s="40">
+        <v>0</v>
+      </c>
+      <c r="AY96" s="40">
+        <v>6</v>
+      </c>
+      <c r="AZ96" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA96" s="40">
+        <v>0</v>
+      </c>
+      <c r="BB96" s="40">
+        <v>0</v>
+      </c>
+      <c r="BC96" s="40">
+        <v>9999</v>
+      </c>
+      <c r="BD96" s="40">
+        <v>7</v>
+      </c>
+      <c r="BE96" s="40">
+        <v>17</v>
+      </c>
+      <c r="BF96" s="40">
+        <v>25</v>
+      </c>
+      <c r="BG96" s="40">
+        <v>100</v>
+      </c>
+      <c r="BH96" s="40">
+        <v>150</v>
+      </c>
+      <c r="BI96" s="40">
+        <v>200</v>
+      </c>
+      <c r="BJ96" s="40">
+        <v>99999</v>
+      </c>
+      <c r="BK96" s="40">
+        <v>1</v>
+      </c>
+      <c r="BL96" s="40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="46:64" x14ac:dyDescent="0.2">
+      <c r="AT97" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="98" spans="46:64" x14ac:dyDescent="0.2">
+      <c r="AT98" s="67">
+        <v>25</v>
+      </c>
+      <c r="AU98" s="67">
+        <v>0</v>
+      </c>
+      <c r="AV98" s="67">
+        <v>0</v>
+      </c>
+      <c r="AW98" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX98" s="67">
+        <v>0</v>
+      </c>
+      <c r="AY98" s="67">
+        <v>0</v>
+      </c>
+      <c r="AZ98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BA98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BB98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BC98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BD98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BE98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BF98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BG98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BH98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BI98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BJ98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BK98" s="67">
+        <v>0</v>
+      </c>
+      <c r="BL98" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="46:64" x14ac:dyDescent="0.2">
+      <c r="AT99" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="46:64" x14ac:dyDescent="0.2">
+      <c r="AT100" s="67">
+        <v>200</v>
+      </c>
+      <c r="AU100" s="67">
+        <v>0</v>
+      </c>
+      <c r="AV100" s="67">
+        <v>0</v>
+      </c>
+      <c r="AW100" s="67">
+        <v>0</v>
+      </c>
+      <c r="AX100" s="67">
+        <v>0</v>
+      </c>
+      <c r="AY100" s="67">
+        <v>0</v>
+      </c>
+      <c r="AZ100" s="67">
+        <v>170</v>
+      </c>
+      <c r="BA100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BB100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BC100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BD100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BE100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BF100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BG100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BH100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BI100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BJ100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BK100" s="67">
+        <v>0</v>
+      </c>
+      <c r="BL100" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="46:64" x14ac:dyDescent="0.2">
+      <c r="AT101" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="46:64" x14ac:dyDescent="0.2">
+      <c r="AT102" s="68">
+        <v>1</v>
+      </c>
+      <c r="AU102" s="68">
+        <v>1</v>
+      </c>
+      <c r="AV102" s="68">
+        <v>1</v>
+      </c>
+      <c r="AW102" s="68">
+        <v>0</v>
+      </c>
+      <c r="AX102" s="68">
+        <v>1</v>
+      </c>
+      <c r="AY102" s="68">
+        <v>1</v>
+      </c>
+      <c r="AZ102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BA102" s="68">
+        <v>1</v>
+      </c>
+      <c r="BB102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BC102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BD102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BE102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BF102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BG102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BH102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BI102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BJ102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BK102" s="68">
+        <v>0</v>
+      </c>
+      <c r="BL102" s="68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="46:64" x14ac:dyDescent="0.2">
+      <c r="AT103" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="46:64" x14ac:dyDescent="0.2">
+      <c r="AT104" s="38" cm="1">
+        <f t="array" ref="AT104:BL104">_xlfn.ANCHORARRAY(AT96)*AT98:BL98+AT100:BL100*AT102:BL102</f>
+        <v>275</v>
+      </c>
+      <c r="AU104" s="38">
+        <v>0</v>
+      </c>
+      <c r="AV104" s="38">
+        <v>0</v>
+      </c>
+      <c r="AW104" s="38">
+        <v>0</v>
+      </c>
+      <c r="AX104" s="38">
+        <v>0</v>
+      </c>
+      <c r="AY104" s="38">
+        <v>0</v>
+      </c>
+      <c r="AZ104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BA104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BB104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BC104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BD104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BE104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BF104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BG104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BH104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BI104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BJ104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BK104" s="38">
+        <v>0</v>
+      </c>
+      <c r="BL104" s="38">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
